--- a/Assets/Resources/Data/ClassDefaultStatus.xlsx
+++ b/Assets/Resources/Data/ClassDefaultStatus.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ClassDefaultStatus" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -158,6 +158,38 @@
   </si>
   <si>
     <t>Rider</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp_r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str_r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skl_r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spd_r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>luk_r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>def_r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cur_r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>move_r</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -195,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -218,14 +250,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -506,20 +683,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="10" width="4.25" customWidth="1"/>
+    <col min="3" max="9" width="4.25" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="18" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,11 +726,35 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -579,11 +782,35 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -611,11 +838,35 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="10">
+        <v>50</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>40</v>
+      </c>
+      <c r="N3" s="1">
+        <v>40</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -643,11 +894,35 @@
       <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>50</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>40</v>
+      </c>
+      <c r="N4" s="1">
+        <v>40</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -675,11 +950,35 @@
       <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="10">
+        <v>50</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+      <c r="M5" s="1">
+        <v>40</v>
+      </c>
+      <c r="N5" s="1">
+        <v>40</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -707,11 +1006,35 @@
       <c r="I6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="10">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>40</v>
+      </c>
+      <c r="N6" s="1">
+        <v>40</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -739,11 +1062,35 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="8">
+        <v>60</v>
+      </c>
+      <c r="L7" s="2">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2">
+        <v>50</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -771,11 +1118,35 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="8">
+        <v>60</v>
+      </c>
+      <c r="L8" s="2">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2">
+        <v>50</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -803,11 +1174,35 @@
       <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="10">
+        <v>80</v>
+      </c>
+      <c r="L9" s="1">
+        <v>50</v>
+      </c>
+      <c r="M9" s="1">
+        <v>30</v>
+      </c>
+      <c r="N9" s="1">
+        <v>20</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -835,11 +1230,35 @@
       <c r="I10" s="2">
         <v>2</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="10">
+        <v>80</v>
+      </c>
+      <c r="L10" s="1">
+        <v>50</v>
+      </c>
+      <c r="M10" s="1">
+        <v>30</v>
+      </c>
+      <c r="N10" s="1">
+        <v>20</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -867,11 +1286,35 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="8">
+        <v>80</v>
+      </c>
+      <c r="L11" s="2">
+        <v>50</v>
+      </c>
+      <c r="M11" s="2">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2">
+        <v>30</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -899,11 +1342,35 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12" s="8">
+        <v>80</v>
+      </c>
+      <c r="L12" s="2">
+        <v>50</v>
+      </c>
+      <c r="M12" s="2">
+        <v>30</v>
+      </c>
+      <c r="N12" s="2">
+        <v>30</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -931,11 +1398,35 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="10">
+        <v>70</v>
+      </c>
+      <c r="L13" s="1">
+        <v>35</v>
+      </c>
+      <c r="M13" s="1">
+        <v>25</v>
+      </c>
+      <c r="N13" s="1">
+        <v>35</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -963,11 +1454,35 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="10">
+        <v>70</v>
+      </c>
+      <c r="L14" s="1">
+        <v>35</v>
+      </c>
+      <c r="M14" s="1">
+        <v>25</v>
+      </c>
+      <c r="N14" s="1">
+        <v>35</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -995,11 +1510,35 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="8">
+        <v>70</v>
+      </c>
+      <c r="L15" s="2">
+        <v>35</v>
+      </c>
+      <c r="M15" s="2">
+        <v>25</v>
+      </c>
+      <c r="N15" s="2">
+        <v>35</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1027,11 +1566,35 @@
       <c r="I16" s="1">
         <v>0</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K16" s="8">
+        <v>70</v>
+      </c>
+      <c r="L16" s="2">
+        <v>35</v>
+      </c>
+      <c r="M16" s="2">
+        <v>25</v>
+      </c>
+      <c r="N16" s="2">
+        <v>35</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1059,11 +1622,35 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1091,11 +1678,35 @@
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1123,11 +1734,35 @@
       <c r="I19" s="1">
         <v>0</v>
       </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1155,11 +1790,35 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1187,11 +1846,35 @@
       <c r="I21" s="1">
         <v>0</v>
       </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1219,11 +1902,35 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1251,11 +1958,35 @@
       <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1283,11 +2014,35 @@
       <c r="I24" s="1">
         <v>0</v>
       </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1315,11 +2070,35 @@
       <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1347,7 +2126,31 @@
       <c r="I26" s="1">
         <v>0</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13">
+        <v>0</v>
+      </c>
+      <c r="N26" s="13">
+        <v>0</v>
+      </c>
+      <c r="O26" s="13">
+        <v>0</v>
+      </c>
+      <c r="P26" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>0</v>
+      </c>
+      <c r="R26" s="14">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/ClassDefaultStatus.xlsx
+++ b/Assets/Resources/Data/ClassDefaultStatus.xlsx
@@ -729,7 +729,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2110,52 +2110,52 @@
         <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K18" s="10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
       </c>
       <c r="R18" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="16">
         <v>60</v>

--- a/Assets/Resources/Data/ClassDefaultStatus.xlsx
+++ b/Assets/Resources/Data/ClassDefaultStatus.xlsx
@@ -729,7 +729,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1470,10 +1470,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
